--- a/01_ProjectPlanning/Tasks.xlsx
+++ b/01_ProjectPlanning/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kemal Yavuz\Documents\GitHub\Connected\01_ProjectPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD1170D-1688-40E8-BC8D-603E87B3B05A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A9B3C2-9573-4EBE-8633-DB3200C8C157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Task</t>
   </si>
@@ -48,12 +48,6 @@
     <t>Florian Wilflingseder</t>
   </si>
   <si>
-    <t>Icons auswählen</t>
-  </si>
-  <si>
-    <t>2 Stunden</t>
-  </si>
-  <si>
     <t>1 Stunde</t>
   </si>
   <si>
@@ -79,6 +73,15 @@
   </si>
   <si>
     <t>11 Stunden</t>
+  </si>
+  <si>
+    <t>Icons und Theme auswählen</t>
+  </si>
+  <si>
+    <t>5 Stunden</t>
+  </si>
+  <si>
+    <t>4 Stunde</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,19 +476,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -493,42 +496,42 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">

--- a/01_ProjectPlanning/Tasks.xlsx
+++ b/01_ProjectPlanning/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kemal Yavuz\Documents\GitHub\Connected\01_ProjectPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A9B3C2-9573-4EBE-8633-DB3200C8C157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8988F7E6-6A39-4056-917E-8324716EACB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -60,9 +60,6 @@
     <t>8 Stunden</t>
   </si>
   <si>
-    <t>7 Stunden</t>
-  </si>
-  <si>
     <t>Logik in Android Studio lernen</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>12 Stunden</t>
   </si>
   <si>
-    <t>11 Stunden</t>
-  </si>
-  <si>
     <t>Icons und Theme auswählen</t>
   </si>
   <si>
@@ -82,6 +76,18 @@
   </si>
   <si>
     <t>4 Stunde</t>
+  </si>
+  <si>
+    <t>10 Stunden</t>
+  </si>
+  <si>
+    <t>2 Stunde</t>
+  </si>
+  <si>
+    <t>15 Stunden</t>
+  </si>
+  <si>
+    <t>13 Stunden</t>
   </si>
 </sst>
 </file>
@@ -442,7 +448,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,19 +482,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -499,16 +505,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
@@ -516,22 +522,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">

--- a/01_ProjectPlanning/Tasks.xlsx
+++ b/01_ProjectPlanning/Tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kemal Yavuz\Documents\GitHub\Connected\01_ProjectPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8988F7E6-6A39-4056-917E-8324716EACB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753F6D83-B812-4972-AE5E-CE0AD3498DAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Task</t>
   </si>
@@ -48,18 +48,9 @@
     <t>Florian Wilflingseder</t>
   </si>
   <si>
-    <t>1 Stunde</t>
-  </si>
-  <si>
     <t>App Design erstellen</t>
   </si>
   <si>
-    <t>Tobias Kast</t>
-  </si>
-  <si>
-    <t>8 Stunden</t>
-  </si>
-  <si>
     <t>Logik in Android Studio lernen</t>
   </si>
   <si>
@@ -69,25 +60,28 @@
     <t>12 Stunden</t>
   </si>
   <si>
-    <t>Icons und Theme auswählen</t>
-  </si>
-  <si>
     <t>5 Stunden</t>
   </si>
   <si>
-    <t>4 Stunde</t>
-  </si>
-  <si>
     <t>10 Stunden</t>
   </si>
   <si>
-    <t>2 Stunde</t>
-  </si>
-  <si>
     <t>15 Stunden</t>
   </si>
   <si>
-    <t>13 Stunden</t>
+    <t>Icons auswählen</t>
+  </si>
+  <si>
+    <t>0 Stunde</t>
+  </si>
+  <si>
+    <t>2 Stunden</t>
+  </si>
+  <si>
+    <t>6 Stunden</t>
+  </si>
+  <si>
+    <t>Tobias Kast/Florian Wilflingseder</t>
   </si>
 </sst>
 </file>
@@ -448,7 +442,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,8 +450,8 @@
     <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -485,16 +479,16 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -502,42 +496,42 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
